--- a/medicine/Pharmacie/Ceftriaxone/Ceftriaxone.xlsx
+++ b/medicine/Pharmacie/Ceftriaxone/Ceftriaxone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La ceftriaxone est un antibiotique bactéricide de synthèse de la classe des céphalosporines de troisième génération, appartenant à la famille des bêta-lactamines. Son large spectre lui confère une activité sur des bactéries à gram positif et à gram négatif. Son efficacité est très proche de celle de la céfotaxime. Elle est initialement commercialisée sous le nom de Rocéphine avant de l'être sous des formes génériques.Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en septembre 2019)[3].
+La ceftriaxone est un antibiotique bactéricide de synthèse de la classe des céphalosporines de troisième génération, appartenant à la famille des bêta-lactamines. Son large spectre lui confère une activité sur des bactéries à gram positif et à gram négatif. Son efficacité est très proche de celle de la céfotaxime. Elle est initialement commercialisée sous le nom de Rocéphine avant de l'être sous des formes génériques.Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en septembre 2019).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Cas d'utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En l'absence de contre-indication, les infections graves à germes sensibles sont ses indications préférentielles (seule ou en association) : pneumonies communautaires, méningites bactériennes, pyélonéphrites, maladie de Lyme, sepsis, endocardites, infections au cours de résections endoscopiques de la prostate, infections de la peau et des tissus mous, infections digestives et /ou biliaires, infections ostéoarticulaires, infections otorhinolaryngologiques, infections stomatologiques, infections urinaires et urogénitales, otites moyennes aiguës, prostatites, pyélonéphrites[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En l'absence de contre-indication, les infections graves à germes sensibles sont ses indications préférentielles (seule ou en association) : pneumonies communautaires, méningites bactériennes, pyélonéphrites, maladie de Lyme, sepsis, endocardites, infections au cours de résections endoscopiques de la prostate, infections de la peau et des tissus mous, infections digestives et /ou biliaires, infections ostéoarticulaires, infections otorhinolaryngologiques, infections stomatologiques, infections urinaires et urogénitales, otites moyennes aiguës, prostatites, pyélonéphrites.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ceftriaxone agit sur les bactéries en inhibant la synthèse de la paroi cellulaire après s'être fixée aux protéines de liaison de la pénicilline. Cette inhibition conduisant à la mort de la cellule bactérienne[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ceftriaxone agit sur les bactéries en inhibant la synthèse de la paroi cellulaire après s'être fixée aux protéines de liaison de la pénicilline. Cette inhibition conduisant à la mort de la cellule bactérienne.
 </t>
         </is>
       </c>
@@ -576,10 +592,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces sensibles
-Les espèces aérobies à Gram + sensibles sont    staphylococcus méti-S, streptococcus et Streptococcus pneumoniae.
+          <t>Espèces sensibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces aérobies à Gram + sensibles sont    staphylococcus méti-S, streptococcus et Streptococcus pneumoniae.
 Celles sensibles  aérobies à Gram - sont les espèces Borrelia burgdorferi, Branhamella catarrhalis, Citrobacter freundii, Citrobacter koseri, enterobacter, Escherichia coli, Haemophilus influenzae, klebsiella, Morganella morganii, neisseria y compris Neisseria meningitidis et Neisseria gonorrhoeae, Proteus mirabilis, Proteus multocida, Proteus vulgaris, providencia, salmonella, serratia, shigella, yersinia.
-Enfin, les espèces anaérobies sensibles à la ceftriaxone sont Clostridium perfringens, fusobacterium, peptostreptococcus et prevotella[4].
+Enfin, les espèces anaérobies sensibles à la ceftriaxone sont Clostridium perfringens, fusobacterium, peptostreptococcus et prevotella.
 </t>
         </is>
       </c>
@@ -608,9 +629,11 @@
           <t>Moyen d'administration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ceftriaxone est administrée par voie intraveineuse ou en intramusculaire, la voie sous-cutanée n'a pas été validée[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ceftriaxone est administrée par voie intraveineuse ou en intramusculaire, la voie sous-cutanée n'a pas été validée.
 </t>
         </is>
       </c>
